--- a/PagineHtml/5-Fazzoletti per il naso morbidi e confezionati all'ingrosso | soft facial tissues pocket pack manufacturer supplier.xlsx
+++ b/PagineHtml/5-Fazzoletti per il naso morbidi e confezionati all'ingrosso | soft facial tissues pocket pack manufacturer supplier.xlsx
@@ -517,29 +517,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>All'ingrosso 3-Ply Mini fazzoletto da tasca morbido per la casa e il viaggio 3-strati del tessuto facciale per la pubblicità</t>
+          <t>Tessuto facciale morbido FTW2-S300</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,0434-0,0607 €</t>
+          <t>0,563 €</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 parti</t>
+          <t>Ordine minimo: 15.000 pacchetti</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jiangxi Rongyi Paper Products Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>Shenzhen Anmay Paper Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -571,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Customizzato Ultra morbido pacchetto tascabile a 3 strati fazzoletti viso Mini stile piccolo realizzato con carta vergine di pasta di legno</t>
+          <t>Commercio all'ingrosso promozionale personalizzato portafoglio tascabile fazzoletto di carta morbida produttore di fazzoletti di carta usa e getta</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,0434-0,0607 €</t>
+          <t>0,0347-0,052 €</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 parti</t>
+          <t>Ordine minimo: 5.000 pacchetti</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jiangxi Rongyi Paper Products Co., Ltd.</t>
+          <t>Dongguan Dingqiao Daily Necessities Co., Ltd.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,248 +594,252 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso promozionale personalizzato portafoglio tascabile fazzoletto di carta morbida produttore di fazzoletti di carta usa e getta</t>
+          <t>Facial Tissue Paper Supplier and Wholesaler Soft Pocket Size Mini Tissue Pack Pocket Facial Tissues</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,0347-0,052 €</t>
+          <t>0,4417-0,4937 €</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ordine minimo: 5.000 pacchetti</t>
+          <t>Ordine minimo: 10 sacchi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dongguan Dingqiao Daily Necessities Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>Hebei Truth Trading Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tessuto facciale morbido FTW2-S300</t>
+          <t>Fornitore della fabbrica della cina OEM carta tascabile vergine di pasta di legno morbido fazzoletto per il viso pacchetto di carta sfusa campioni gratuiti</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,563 €</t>
+          <t>0,0347-0,052 €</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ordine minimo: 15.000 pacchetti</t>
+          <t>Ordine minimo: 50 sacchi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Shenzhen Anmay Paper Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>Zhangzhou Zhongnan Nursing Products Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Facial Tissue Paper Supplier and Wholesaler Soft Pocket Size Mini Tissue Pack Pocket Facial Tissues</t>
+          <t>Confezione di fazzoletti morbidi per la casa dell'hotel per la pulizia del viso all'ingrosso produttore di carta velina per tovaglioli di carta velina per il viso di buona qualità</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,4417-0,4937 €</t>
+          <t>0,2685-0,4504 €</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10 sacchi</t>
+          <t>Ordine minimo: 16.068 sacchi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hebei Truth Trading Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>Shenzhen Telling Commodity Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fornitore della fabbrica della cina OEM carta tascabile vergine di pasta di legno morbido fazzoletto per il viso pacchetto di carta sfusa campioni gratuiti</t>
+          <t>All'ingrosso 2ply fazzoletti da tasca bianchi a 3 strati su misura con marchio morbido fazzoletti sfusi per il viso fornitori</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,0347-0,052 €</t>
+          <t>0,052-0,1559 €</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50 sacchi</t>
+          <t>Ordine minimo: 30.000 sacchi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Zhangzhou Zhongnan Nursing Products Co., Ltd.</t>
+          <t>Hebei Kongshi Paper Products Processing Co., Ltd.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Confezione di fazzoletti morbidi per la casa dell'hotel per la pulizia del viso all'ingrosso produttore di carta velina per tovaglioli di carta velina per il viso di buona qualità</t>
+          <t>All'ingrosso portafoglio personalizzato promozionale pacchetto di fazzoletti di carta morbida produttore di fazzoletti monouso per il viso 3 strati</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,2685-0,4504 €</t>
+          <t>0,0347-0,0434 €</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ordine minimo: 16.068 sacchi</t>
+          <t>Ordine minimo: 100 sacchi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Shenzhen Telling Commodity Co., Ltd.</t>
+          <t>Baoding Wanbang Paper Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>All'ingrosso della fabbrica stampa personalizzata Mini tessuto tascabile 3ply facile da trasportare alla rinfusa fazzoletto di carta velina da tasca</t>
+          <t>Fornitore di fabbrica OEM tascabile carta velina vergine pasta di legno morbido fazzoletto per il viso pacchetto di carta sfusa campioni gratuiti</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,026-0,0434 €</t>
+          <t>0,0347-0,0434 €</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10.000 parti</t>
+          <t>Ordine minimo: 500 sacchi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dongguan Yancheng Printing Co., Ltd.,</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>Baoding Wanbang Paper Products Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>All'ingrosso 2ply fazzoletti da tasca bianchi a 3 strati su misura con marchio morbido fazzoletti sfusi per il viso fornitori</t>
+          <t>Commercio all'ingrosso di 14 gsm 2ply soft pack di carta facciale del tessuto di fabbrica in cina</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,052-0,1559 €</t>
+          <t>0,2599 €</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ordine minimo: 30.000 sacchi</t>
+          <t>Ordine minimo: 1.000 sacchi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hebei Kongshi Paper Products Processing Co., Ltd.</t>
+          <t>Bright Paper Co., Ltd.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OEM di alta qualità stampato personalizzato Soft Pack carta velina facciale fabbrica nuovo stile estrazione carta velina facciale</t>
+          <t>Wholesale Promotional Customized Wallet Pocket Tissue Pack Soft Paper Handkerchief Manufacturer Disposable Facial Tissue 3 Ply</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,0434-0,1473 €</t>
+          <t>0,0174-0,026 €</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ordine minimo: 500 sacchi</t>
+          <t>Ordine minimo: 3.000 sacchi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hebei Kongshi Paper Products Processing Co., Ltd.</t>
+          <t>Qingdao Dongfang Jiarui Int'l Co., Ltd.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>All'ingrosso portafoglio personalizzato promozionale pacchetto di fazzoletti di carta morbida produttore di fazzoletti monouso per il viso 3 strati</t>
+          <t>1/2/3/4 di fabbrica di tessuti facciali molli angolari</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,0347-0,0434 €</t>
+          <t>0,026 €</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100 sacchi</t>
+          <t>Ordine minimo: 450.000 sacchi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Baoding Wanbang Paper Products Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
+          <t>Xiamen Qiaodou Daily Commodity Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fornitore di fabbrica OEM tascabile carta velina vergine pasta di legno morbido fazzoletto per il viso pacchetto di carta sfusa campioni gratuiti</t>
+          <t>All'ingrosso portafoglio personalizzato promozionale pacchetto di fazzoletti di carta morbida produttore di fazzoletti monouso per il viso</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,0347-0,0434 €</t>
+          <t>0,104-0,1992 €</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ordine minimo: 500 sacchi</t>
+          <t>Ordine minimo: 2 sacchi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -856,76 +856,72 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso di 14 gsm 2ply soft pack di carta facciale del tessuto di fabbrica in cina</t>
+          <t>Commercio all'ingrosso della fabbrica di pasta di legno vergine bianca 2 strati del tessuto del viso morbido del tessuto di pulizia del viso</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,2599 €</t>
+          <t>0,0867-0,2599 €</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 sacchi</t>
+          <t>Ordine minimo: 200.000 parti</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bright Paper Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
+          <t>Shanghai Sunjoy International Trade Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wholesale Promotional Customized Wallet Pocket Tissue Pack Soft Paper Handkerchief Manufacturer Disposable Facial Tissue 3 Ply</t>
+          <t>Commercio all'ingrosso promozionale personalizzato pacchetto di fazzoletti di carta morbida produttore di fazzoletti di dimensioni Mini tessuto facciale</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,0174-0,026 €</t>
+          <t>0,0347-0,052 €</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ordine minimo: 3.000 sacchi</t>
+          <t>Ordine minimo: 10.000 pacchetti</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Qingdao Dongfang Jiarui Int'l Co., Ltd.</t>
+          <t>Baoding Yusen Sanitary Health Supplies Co., Ltd.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1/2/3/4 di fabbrica di tessuti facciali molli angolari</t>
+          <t>Pacchetto di fazzoletti morbidi per la pulizia del viso per la casa dell'hotel di buona qualità carta velina per il viso</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,026 €</t>
+          <t>0,2166 €</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ordine minimo: 450.000 sacchi</t>
+          <t>Ordine minimo: 1.000 scatole</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Xiamen Qiaodou Daily Commodity Co., Ltd.</t>
+          <t>Dongguan Xingli Paper Industry Co., Ltd.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -933,149 +929,153 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>All'ingrosso portafoglio personalizzato promozionale pacchetto di fazzoletti di carta morbida produttore di fazzoletti monouso per il viso</t>
+          <t>Fazzoletti da tasca 20*19.5cm carta vergine in pasta di legno personalizzabile Ultra morbida tascabile da viaggio viso</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,104-0,1992 €</t>
+          <t>0,052-0,0693 €</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ordine minimo: 2 sacchi</t>
+          <t>Ordine minimo: 500 parti</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Baoding Wanbang Paper Products Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
+          <t>Guangxi Mancy Technology Development Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso della fabbrica di pasta di legno vergine bianca 2 strati del tessuto del viso morbido del tessuto di pulizia del viso</t>
+          <t>Commercio all'ingrosso del tessuto del viso della scatola del tessuto molle del tessuto della tasca del materiale della polpa di bambù progettazione personalizzata del tessuto del viso fornitore</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,0867-0,2599 €</t>
+          <t>0,1733 €</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ordine minimo: 200.000 parti</t>
+          <t>Ordine minimo: 2 parti</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Shanghai Sunjoy International Trade Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>Henrich (shandong) Health Technology Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pacco di pasta di legno vergine Ultra morbido sfuso 3ply 4ply Logo personalizzato di alta qualità del viso</t>
+          <t>Pacchetto molle del tessuto molle facciale d'imballaggio su ordinazione all'ingrosso della carta igienica della tasca</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,078-0,1473 €</t>
+          <t>0,2599 €</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ordine minimo: 500 sacchi</t>
+          <t>Ordine minimo: 10.000 sacchi</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hebei Kongshi Paper Products Processing Co., Ltd.</t>
+          <t>Dalian Lecheng Packaging Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso promozionale personalizzato pacchetto di fazzoletti di carta morbida produttore di fazzoletti di dimensioni Mini tessuto facciale</t>
+          <t>Factory Wholesale Soft Comfortable 4-Ply Pocket Wet Dry Facial Tissues Ready Stock Paper Face for Travel</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,0347-0,052 €</t>
+          <t>0,026-0,0347 €</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10.000 pacchetti</t>
+          <t>Ordine minimo: 100.000 sacchi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Baoding Yusen Sanitary Health Supplies Co., Ltd.</t>
+          <t>Qingdao Dongfang Jiarui Int'l Co., Ltd.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso Super morbido 100% vergine tessuto di pasta di legno 2/3/4 strati di carta velina personalizzata con Logo del tessuto facciale</t>
+          <t>Commercio all'ingrosso di fabbrica di carta viso viso fazzoletto di carta fazzoletto morbido comodo 4 strati da viaggio tessuto bagnato e asciutto</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,0174-0,052 €</t>
+          <t>0,1992-0,2426 €</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ordine minimo: 5.000 scatole</t>
+          <t>Ordine minimo: 1.920 sacchi</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dongguan Yancheng Printing Co., Ltd.,</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>Fujian Wellcare Hygiene Products Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pacchetto di fazzoletti morbidi per la pulizia del viso per la casa dell'hotel di buona qualità carta velina per il viso</t>
+          <t>Fornitori all'ingrosso di Tissue customizzato confezione morbida di marca 2ply 3ply carta velina bianca per il viso</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,2166 €</t>
+          <t>0,0867-0,1213 €</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 scatole</t>
+          <t>Ordine minimo: 30.000 sacchi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dongguan Xingli Paper Industry Co., Ltd.</t>
+          <t>Baoding Zhongxuan E-Commerce Co., Ltd.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1083,40 +1083,44 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fazzoletti da tasca 20*19.5cm carta vergine in pasta di legno personalizzabile Ultra morbida tascabile da viaggio viso</t>
+          <t>Fornitori all'ingrosso all'ingrosso di imballaggio personalizzato Soft Pack 2ply 3ply carta velina bianca per il viso per la casa</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,052-0,0693 €</t>
+          <t>0,078-0,1646 €</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ordine minimo: 500 parti</t>
+          <t>Ordine minimo: 30.000 sacchi</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Guangxi Mancy Technology Development Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>Baoding Roushun Trading Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso del tessuto del viso della scatola del tessuto molle del tessuto della tasca del materiale della polpa di bambù progettazione personalizzata del tessuto del viso fornitore</t>
+          <t>Confezione in tessuto viso di cotone confezione confezione morbida fondo tirare e tirare al centro carta di carta per distributore all'ingrosso esportatore di marca</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,1733 €</t>
+          <t>0,3292-0,3465 €</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ordine minimo: 2 parti</t>
+          <t>Ordine minimo: 5.000 parti</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1133,22 +1137,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pacchetto molle del tessuto molle facciale d'imballaggio su ordinazione all'ingrosso della carta igienica della tasca</t>
+          <t>Alta qualità fornitura di fabbrica su misura tasca morbida carta velina 3ply all'ingrosso tessuto facciale Eco Friendly campioni gratuiti</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,2599 €</t>
+          <t>0,052 €</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10.000 sacchi</t>
+          <t>Ordine minimo: 50 sacchi</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Dalian Lecheng Packaging Products Co., Ltd.</t>
+          <t>Zhangzhou Zhongnan Nursing Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1160,138 +1164,142 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Factory Wholesale Soft Comfortable 4-Ply Pocket Wet Dry Facial Tissues Ready Stock Paper Face for Travel</t>
+          <t>Produttore all'ingrosso promozionale personalizzato confezione di carta morbida fazzoletto di carta velina usa e getta</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,026-0,0347 €</t>
+          <t>0,104-0,1992 €</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ordine minimo: 100.000 sacchi</t>
+          <t>Ordine minimo: 2 sacchi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Qingdao Dongfang Jiarui Int'l Co., Ltd.</t>
+          <t>Baoding Wanbang Paper Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso di fabbrica di carta viso viso fazzoletto di carta fazzoletto morbido comodo 4 strati da viaggio tessuto bagnato e asciutto</t>
+          <t>Supporto personalizzato di alta qualità Soft Pack prezzo di fabbrica fazzoletto tasca carta velina</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,1992-0,2426 €</t>
+          <t>0,0607-0,1386 €</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.920 sacchi</t>
+          <t>Ordine minimo: 20.000 sacchi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fujian Wellcare Hygiene Products Co., Ltd.</t>
+          <t>Baoding Zhiruo Hygiene Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fornitori all'ingrosso di Tissue customizzato confezione morbida di marca 2ply 3ply carta velina bianca per il viso</t>
+          <t>Vendita diretta in fabbrica di pasta di legno originale mini carta sottile carta bianca morbida fazzoletto 10 confezioni di piccoli tovaglioli</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0,0867-0,1213 €</t>
+          <t>0,0347-0,078 €</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ordine minimo: 30.000 sacchi</t>
+          <t>Ordine minimo: 1.000 parti</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Baoding Zhongxuan E-Commerce Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>Baoding Haiwen Trading Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fornitori all'ingrosso all'ingrosso di imballaggio personalizzato Soft Pack 2ply 3ply carta velina bianca per il viso per la casa</t>
+          <t>Produttore all'ingrosso 2ply 3ply bamboo pulp soft box carta velina facciale</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,078-0,1646 €</t>
+          <t>0,1733-0,2599 €</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ordine minimo: 30.000 sacchi</t>
+          <t>Ordine minimo: 30.000 scatole</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Baoding Roushun Trading Co., Ltd.</t>
+          <t>Jiangsu Hewbonn Paper Industrial Co., Ltd.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Confezione in tessuto viso di cotone confezione confezione morbida fondo tirare e tirare al centro carta di carta per distributore all'ingrosso esportatore di marca</t>
+          <t>Fornitori all'ingrosso di Tissue customizzato confezione singola morbida di marca 2 strati 3 strati di carta velina bianca per il viso</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,3292-0,3465 €</t>
+          <t>0,1126-0,1646 €</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ordine minimo: 5.000 parti</t>
+          <t>Ordine minimo: 10.000 pacchetti</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Henrich (shandong) Health Technology Co., Ltd.</t>
+          <t>Shenzhen Telling Commodity Co., Ltd.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>3.8</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Alta qualità fornitura di fabbrica su misura tasca morbida carta velina 3ply all'ingrosso tessuto facciale Eco Friendly campioni gratuiti</t>
+          <t>Impacchi di fazzoletti facciali morbidi tascabili in carta per tessuti molli a prezzo sfuso</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1301,416 +1309,416 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ordine minimo: 50 sacchi</t>
+          <t>Ordine minimo: 60.000 parti</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Zhangzhou Zhongnan Nursing Products Co., Ltd.</t>
+          <t>Baoding Hozhong Hygienic Products Manufacturing Co., Ltd.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Produttore all'ingrosso promozionale personalizzato confezione di carta morbida fazzoletto di carta velina usa e getta</t>
+          <t>Pacchetto di carta per tessuti molli della fabbrica OEM 2 strati di tessuti facciali per neonati e adulti all'ingrosso scatole morbide economiche</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,104-0,1992 €</t>
+          <t>0,3032-0,3378 €</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ordine minimo: 2 sacchi</t>
+          <t>Ordine minimo: 10.000 scatole</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Baoding Wanbang Paper Products Co., Ltd.</t>
+          <t>Qingdao Dongfang Jiarui Int'l Co., Ltd.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Supporto personalizzato di alta qualità Soft Pack prezzo di fabbrica fazzoletto tasca carta velina</t>
+          <t>Commercio all'ingrosso diretto in fabbrica Soft Pack carta velina per il viso 3 Ply scatola di tessuto per uso domestico</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,0607-0,1386 €</t>
+          <t>0,2859-0,2945 €</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ordine minimo: 20.000 sacchi</t>
+          <t>Ordine minimo: 36.000 sacchi</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Baoding Zhiruo Hygiene Products Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
+          <t>Quanzhou Tianheng Paper Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Vendita diretta in fabbrica di pasta di legno originale mini carta sottile carta bianca morbida fazzoletto 10 confezioni di piccoli tovaglioli</t>
+          <t>Fornitori di Tissue confezionate personalizzate confezioni singole morbide 2 strati 3 strati di carta velina bianca per il viso all'ingrosso</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,0347-0,078 €</t>
+          <t>0,0434-0,1733 €</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ordine minimo: 1.000 parti</t>
+          <t>Ordine minimo: 30.000 pacchetti</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Baoding Haiwen Trading Co., Ltd.</t>
+          <t>Baoding Yusen Sanitary Health Supplies Co., Ltd.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Produttore all'ingrosso 2ply 3ply bamboo pulp soft box carta velina facciale</t>
+          <t>Commercio all'ingrosso pacchetto su misura OEM 3ply soft pack di carta velina facciale per il viso di pulizia</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,1733-0,2599 €</t>
+          <t>12,04-15,51 €</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ordine minimo: 30.000 scatole</t>
+          <t>Ordine minimo: 10 sacchi</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jiangsu Hewbonn Paper Industrial Co., Ltd.</t>
+          <t>Baoding Roushun Trading Co., Ltd.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso della fabbrica Oem carta velina morbida per uso domestico e commerciale del tessuto facciale</t>
+          <t>Commercio all'ingrosso della fabbrica morbido 3-strati tessuto facciale comodo tasca per uso domestico pronto Stock per il viaggio carta bagnata/asciutta</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,0693-0,1473 €</t>
+          <t>0,13-0,1386 €</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ordine minimo: 20.000 sacchi</t>
+          <t>Ordine minimo: 75.000 sacchi</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hebei Kongshi Paper Products Processing Co., Ltd.</t>
+          <t>Quanzhou Yaosheng Paper Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fornitori all'ingrosso di Tissue customizzato confezione singola morbida di marca 2 strati 3 strati di carta velina bianca per il viso</t>
+          <t>Commercio all'ingrosso 2/3/4ply Logo personalizzato monouso all'ingrosso pacchetto morbido sfuso 2ply / 3ply tessuto facciale</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,1126-0,1646 €</t>
+          <t>0,052-0,1386 €</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10.000 pacchetti</t>
+          <t>Ordine minimo: 24 sacchi</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Shenzhen Telling Commodity Co., Ltd.</t>
+          <t>Hebei Kongshi Paper Products Processing Co., Ltd.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Impacchi di fazzoletti facciali morbidi tascabili in carta per tessuti molli a prezzo sfuso</t>
+          <t>All'ingrosso all'ingrosso tessuto viso morbido confezionato 100% vergine di pasta di legno Mini fazzoletto tasca per il tessuto facciale</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,052 €</t>
+          <t>0,0607 €</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ordine minimo: 60.000 parti</t>
+          <t>Ordine minimo: 2.000 sacchi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Baoding Hozhong Hygienic Products Manufacturing Co., Ltd.</t>
+          <t>Bright Paper Co., Ltd.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pacchetto di carta per tessuti molli della fabbrica OEM 2 strati di tessuti facciali per neonati e adulti all'ingrosso scatole morbide economiche</t>
+          <t>Migliore qualità del produttore di tessuto facciale morbido del pacchetto di carta igienica all'ingrosso a buon mercato alla rinfusa vergine pasta di legno 1 2 3 4 strati fazzoletti</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0,3032-0,3378 €</t>
+          <t>0,615-0,6842 €</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10.000 scatole</t>
+          <t>Ordine minimo: 2 sacchi</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Qingdao Dongfang Jiarui Int'l Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
+          <t>Hebei Truth Trading Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso diretto in fabbrica Soft Pack carta velina per il viso 3 Ply scatola di tessuto per uso domestico</t>
+          <t>10 fogli 3ply confezione morbida all'ingrosso confezioni di fazzoletti fazzoletto di carta tasca per il viso 3 strati di pasta di legno vergine confezione individuale</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,2859-0,2945 €</t>
+          <t>0,0607 €</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ordine minimo: 36.000 sacchi</t>
+          <t>Ordine minimo: 10.000 sacchi</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Quanzhou Tianheng Paper Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>Dongguan Dingqiao Daily Necessities Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fornitori di Tissue confezionate personalizzate confezioni singole morbide 2 strati 3 strati di carta velina bianca per il viso all'ingrosso</t>
+          <t>Commercio all'ingrosso della fabbrica 100% viscosa cotone usa e getta tessuto viso morbido pacchetto di carta asciugamani da bagno non tessuto compresso</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0,0434-0,1733 €</t>
+          <t>0,6929 €</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ordine minimo: 30.000 pacchetti</t>
+          <t>Ordine minimo: 24 sacchi</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Baoding Yusen Sanitary Health Supplies Co., Ltd.</t>
+          <t>Zhejiang Kaifu Daily Necessities Co., Ltd</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso pacchetto su misura OEM 3ply soft pack di carta velina facciale per il viso di pulizia</t>
+          <t>Vendita all'ingrosso prezzo di fabbrica a caldo monouso biodegradabile pacchetto morbido 2strati tessuto facciale di bambù</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>12,04-15,51 €</t>
+          <t>0,0693-0,1733 €</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ordine minimo: 10 sacchi</t>
+          <t>Ordine minimo: 20.000 sacchi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Baoding Roushun Trading Co., Ltd.</t>
+          <t>Lianyungang Eternity International Trading Co., Ltd.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso della fabbrica morbido 3-strati tessuto facciale comodo tasca per uso domestico pronto Stock per il viaggio carta bagnata/asciutta</t>
+          <t>Pacchetto all'ingrosso su misura della fabbrica della porcellana pasta di legno vergine fondo tirare la parete del tessuto facciale che appende il tessuto facciale</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0,13-0,1386 €</t>
+          <t>0,4937-0,6063 €</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ordine minimo: 75.000 sacchi</t>
+          <t>Ordine minimo: 1.000 sacchi</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Quanzhou Yaosheng Paper Products Co., Ltd.</t>
+          <t>Zibo Langqiao Biotechnology Co., Ltd.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Commercio all'ingrosso 2/3/4ply Logo personalizzato monouso all'ingrosso pacchetto morbido sfuso 2ply / 3ply tessuto facciale</t>
+          <t>OEM su misura all'ingrosso imballaggio morbido della fabbrica portatile promozionale della pelle amichevole tessuto di carta per il viso del tovagliolo per la casa</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,052-0,1386 €</t>
+          <t>0,0607-0,1646 €</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ordine minimo: 24 sacchi</t>
+          <t>Ordine minimo: 20.000 sacchi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Hebei Kongshi Paper Products Processing Co., Ltd.</t>
+          <t>Baoding Zhiruo Hygiene Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>All'ingrosso all'ingrosso tessuto viso morbido confezionato 100% vergine di pasta di legno Mini fazzoletto tasca per il tessuto facciale</t>
+          <t>Imballaggio morbido all'ingrosso Poly Bag carta velina Oem Pack carta velina per il viso tessuto molle del viso</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,0607 €</t>
+          <t>0,1733 €</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ordine minimo: 2.000 sacchi</t>
+          <t>Ordine minimo: 4 scatole</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Bright Paper Co., Ltd.</t>
+          <t>Quanzhou Aiyuan Hygiene Products Co., Ltd.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Migliore qualità del produttore di tessuto facciale morbido del pacchetto di carta igienica all'ingrosso a buon mercato alla rinfusa vergine pasta di legno 1 2 3 4 strati fazzoletti</t>
+          <t>All'ingrosso carta velina per il viso Design del tessuto per il viso confezione di carta monouso per la pulizia Ultra morbida del tessuto</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0,615-0,6842 €</t>
+          <t>3,38-4,86 €</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ordine minimo: 2 sacchi</t>
+          <t>Ordine minimo: 60.000 sacchi</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Hebei Truth Trading Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>Linghai Zhanwang Biotechnology Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
